--- a/Kyle/DesignTemplate/InstructionsRev2.xlsx
+++ b/Kyle/DesignTemplate/InstructionsRev2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Final_228\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\Dropbox\My PC (LNERD-TOWA)\Documents\GitHub\ECE228_Final\Kyle\DesignTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566967AD-C3DB-440A-95F5-216327CC74D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2504ABF4-0C1D-458D-94AD-AEA433D669C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9420" yWindow="1605" windowWidth="18975" windowHeight="15330" xr2:uid="{6C79877F-4E4D-45FC-A812-5BCB67EFE615}"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="18975" windowHeight="15330" xr2:uid="{6C79877F-4E4D-45FC-A812-5BCB67EFE615}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>DA</t>
   </si>
@@ -69,9 +69,6 @@
     <t>OPCODE</t>
   </si>
   <si>
-    <t>ADD_EN</t>
-  </si>
-  <si>
     <t>Control Signals</t>
   </si>
   <si>
@@ -100,6 +97,39 @@
   </si>
   <si>
     <t>Instruction Words</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>2'b01</t>
+  </si>
+  <si>
+    <t>2'b00</t>
+  </si>
+  <si>
+    <t>2'b10</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>2'b11</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>IR2</t>
+  </si>
+  <si>
+    <t>IR3</t>
+  </si>
+  <si>
+    <t>IR4</t>
+  </si>
+  <si>
+    <t>add_en</t>
   </si>
 </sst>
 </file>
@@ -123,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +202,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <bgColor theme="9" tint="0.79995117038483843"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <bgColor rgb="FF99FFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -407,13 +459,179 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -424,9 +642,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -437,7 +653,44 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -446,41 +699,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -490,15 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -511,46 +740,151 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -559,6 +893,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FF00FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -867,10 +1207,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55BFA83-4A04-4772-8DD6-DC7C6BE6C4EA}">
-  <dimension ref="B1:O10"/>
+  <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,23 +1223,23 @@
     <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="24"/>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -907,29 +1247,29 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="1"/>
@@ -939,29 +1279,29 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="14" t="s">
+      <c r="C4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1"/>
@@ -971,29 +1311,29 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="C5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1"/>
@@ -1003,8 +1343,31 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I6" s="1"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="35" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1012,160 +1375,623 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="35"/>
-    </row>
-    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="54"/>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="J10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="M10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="O10" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="55">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D11" s="56">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="F11" s="56">
         <v>1</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G11" s="56">
+        <v>1</v>
+      </c>
+      <c r="H11" s="56">
+        <v>1</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="56">
+        <v>1</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="38">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+      <c r="E12" s="36">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
         <v>1</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="36">
+        <v>0</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="38">
         <v>1</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E13" s="36">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>1</v>
+      </c>
+      <c r="H13" s="36">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="32" t="s">
-        <v>9</v>
-      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="58"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="64"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B9:O9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Kyle/DesignTemplate/InstructionsRev2.xlsx
+++ b/Kyle/DesignTemplate/InstructionsRev2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\light\Dropbox\My PC (LNERD-TOWA)\Documents\GitHub\ECE228_Final\Kyle\DesignTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2504ABF4-0C1D-458D-94AD-AEA433D669C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12F65C-5DE4-44A8-BE41-0BB955F56823}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="270" windowWidth="18975" windowHeight="15330" xr2:uid="{6C79877F-4E4D-45FC-A812-5BCB67EFE615}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="32">
   <si>
     <t>DA</t>
   </si>
@@ -755,18 +755,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,13 +838,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -885,6 +867,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,7 +1210,7 @@
   <dimension ref="B1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1230,16 +1230,16 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1280,10 +1280,10 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1312,28 +1312,28 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="27" t="s">
+      <c r="D5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="1"/>
@@ -1344,28 +1344,28 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="35" t="s">
+      <c r="D6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="31" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="1"/>
@@ -1376,28 +1376,28 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="41" t="s">
+      <c r="D7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="37" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="1"/>
@@ -1417,22 +1417,22 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="54"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="64"/>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
@@ -1479,46 +1479,46 @@
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="49">
         <v>1</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="50">
         <v>1</v>
       </c>
-      <c r="E11" s="56">
+      <c r="E11" s="50">
         <v>0</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="50">
         <v>1</v>
       </c>
-      <c r="G11" s="56">
+      <c r="G11" s="50">
         <v>1</v>
       </c>
-      <c r="H11" s="56">
+      <c r="H11" s="50">
         <v>1</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="56">
+      <c r="I11" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="50">
         <v>1</v>
       </c>
-      <c r="K11" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="57" t="s">
+      <c r="K11" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="51" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1526,87 +1526,87 @@
       <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="34">
         <v>0</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="32">
         <v>0</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="32">
         <v>1</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="32">
         <v>0</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="32">
         <v>0</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="32">
         <v>1</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="36">
+      <c r="I12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="32">
         <v>0</v>
       </c>
-      <c r="K12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="39" t="s">
+      <c r="K12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="34">
         <v>1</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="32">
         <v>0</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="32">
         <v>0</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <v>1</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="32">
         <v>1</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="32">
         <v>1</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="39" t="s">
+      <c r="I13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1614,20 +1614,20 @@
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1635,8 +1635,8 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1656,337 +1656,337 @@
     </row>
     <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
+      <c r="C17" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
+      <c r="C18" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
     </row>
     <row r="19" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
+      <c r="C19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="53"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="64"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="64"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
